--- a/xlsx/管理思想史_intext.xlsx
+++ b/xlsx/管理思想史_intext.xlsx
@@ -35,19 +35,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>科學管理</t>
+    <t>科学管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>行為學派</t>
+    <t>行为学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>利益衝突</t>
+    <t>利益冲突</t>
   </si>
 </sst>
 </file>
